--- a/TAEE/web/resources/files/Plantilla-Empresa.xlsx
+++ b/TAEE/web/resources/files/Plantilla-Empresa.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t>Nombre</t>
   </si>
@@ -50,6 +50,9 @@
     <t>RFC de la Empresa</t>
   </si>
   <si>
+    <t>Correo de Empresa</t>
+  </si>
+  <si>
     <t>Universidad Pedregal Del Sur S C</t>
   </si>
   <si>
@@ -135,13 +138,28 @@
   </si>
   <si>
     <t>Calle 102</t>
+  </si>
+  <si>
+    <t>jobfit@yahoo.com</t>
+  </si>
+  <si>
+    <t>mar@hotmail.com</t>
+  </si>
+  <si>
+    <t>rsf@gmail.com</t>
+  </si>
+  <si>
+    <t>upds@gmail.com</t>
+  </si>
+  <si>
+    <t>salinas.e@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +180,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,22 +206,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -474,194 +506,220 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="11.42578125" style="3"/>
-    <col min="5" max="5" width="17" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="3"/>
-    <col min="7" max="7" width="23.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="21.28515625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
+    <col min="1" max="4" width="11.42578125" style="2"/>
+    <col min="5" max="5" width="17" style="2" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="2"/>
+    <col min="7" max="7" width="23.5703125" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="1:10" ht="71.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="2">
         <v>566576</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="2">
         <v>5566778899</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>57888</v>
+      </c>
+      <c r="F3" s="2">
+        <v>555565435</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2">
+        <v>67888</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45366789</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="2">
+        <v>5466577</v>
+      </c>
+      <c r="F5" s="2">
+        <v>5566442233</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>5454646</v>
+      </c>
+      <c r="F6" s="2">
+        <v>67577383</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="3">
-        <v>57888</v>
-      </c>
-      <c r="F3" s="3">
-        <v>555565435</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3">
-        <v>67888</v>
-      </c>
-      <c r="F4" s="3">
-        <v>45366789</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="3">
-        <v>5466577</v>
-      </c>
-      <c r="F5" s="3">
-        <v>5566442233</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3">
-        <v>5454646</v>
-      </c>
-      <c r="F6" s="3">
-        <v>67577383</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <v>558879</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="I4" r:id="rId1"/>
+    <hyperlink ref="I5" r:id="rId2"/>
+    <hyperlink ref="I6" r:id="rId3"/>
+    <hyperlink ref="I2" r:id="rId4"/>
+    <hyperlink ref="I3" r:id="rId5"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
--- a/TAEE/web/resources/files/Plantilla-Empresa.xlsx
+++ b/TAEE/web/resources/files/Plantilla-Empresa.xlsx
@@ -68,9 +68,6 @@
     <t>CONV019293</t>
   </si>
   <si>
-    <t>UPS7172636</t>
-  </si>
-  <si>
     <t>Grupo salinas</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>salinas.e@gmail.com</t>
+  </si>
+  <si>
+    <t>UPS7172639</t>
   </si>
 </sst>
 </file>
@@ -509,7 +509,7 @@
   <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -565,7 +565,7 @@
         <v>12</v>
       </c>
       <c r="E2" s="2">
-        <v>566576</v>
+        <v>50000</v>
       </c>
       <c r="F2" s="2">
         <v>5566778899</v>
@@ -574,24 +574,24 @@
         <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="2">
         <v>57888</v>
@@ -600,27 +600,27 @@
         <v>555565435</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4" s="2">
         <v>67888</v>
@@ -629,27 +629,27 @@
         <v>45366789</v>
       </c>
       <c r="G4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="I4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="E5" s="2">
         <v>5466577</v>
@@ -658,27 +658,27 @@
         <v>5566442233</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
       </c>
       <c r="E6" s="2">
         <v>5454646</v>
@@ -687,22 +687,22 @@
         <v>67577383</v>
       </c>
       <c r="G6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="1:10" ht="28.5" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>12</v>
